--- a/1_政策宣傳執情形/總整理/教育部.xlsx
+++ b/1_政策宣傳執情形/總整理/教育部.xlsx
@@ -1282,10 +1282,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1591,43 +1591,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
-    <col max="6" min="6" width="9.10"/>
-    <col max="7" min="7" width="9.10"/>
-    <col max="8" min="8" width="9.10"/>
+    <col width="9.10" max="1" min="1"/>
+    <col width="9.10" max="2" min="2"/>
+    <col width="9.10" max="3" min="3"/>
+    <col width="9.10" max="4" min="4"/>
+    <col width="9.10" max="5" min="5"/>
+    <col width="9.10" max="6" min="6"/>
+    <col width="9.10" max="7" min="7"/>
+    <col width="9.10" max="8" min="8"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="2" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c t="s" s="1" r="A1">
         <v>273</v>
       </c>
-      <c s="2" t="s" r="B1">
+      <c t="s" s="1" r="B1">
         <v>320</v>
       </c>
-      <c s="2" t="s" r="C1">
+      <c t="s" s="1" r="C1">
         <v>352</v>
       </c>
-      <c s="2" t="s" r="D1">
+      <c t="s" s="1" r="D1">
         <v>342</v>
       </c>
-      <c s="2" t="s" r="E1">
+      <c t="s" s="1" r="E1">
         <v>381</v>
       </c>
-      <c s="2" t="s" r="F1">
+      <c t="s" s="1" r="F1">
         <v>318</v>
       </c>
-      <c s="2" t="s" r="G1">
+      <c t="s" s="1" r="G1">
         <v>369</v>
       </c>
-      <c s="2" t="s" r="H1">
+      <c t="s" s="1" r="H1">
         <v>275</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>321</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>335</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>37</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>36</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>360</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>20</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>336</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>40</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>39</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>51</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>64</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>65</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>66</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>67</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>68</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>69</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>70</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>372</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>307</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>309</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>313</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>311</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>310</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>312</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>364</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>308</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>315</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>314</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>325</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>322</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>337</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>338</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>376</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>373</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>373</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>373</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>373</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>138</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>358</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>357</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>356</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>355</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>299</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>296</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>297</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="47">
+    <row r="47" spans="1:8">
       <c t="s" r="A47">
         <v>367</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="48">
+    <row r="48" spans="1:8">
       <c t="s" r="A48">
         <v>276</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="49">
+    <row r="49" spans="1:8">
       <c t="s" r="A49">
         <v>374</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="50">
+    <row r="50" spans="1:8">
       <c t="s" r="A50">
         <v>295</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c t="n" r="C50">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D50">
+      <c t="n" s="2" r="D50">
         <v>41116.0</v>
       </c>
       <c t="n" r="E50">
@@ -2754,7 +2754,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="51">
+    <row r="51" spans="1:8">
       <c t="s" r="A51">
         <v>295</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c t="n" r="C51">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D51">
+      <c t="n" s="2" r="D51">
         <v>41120.0</v>
       </c>
       <c t="n" r="E51">
@@ -2777,7 +2777,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="52">
+    <row r="52" spans="1:8">
       <c t="s" r="A52">
         <v>295</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c t="n" r="C52">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D52">
+      <c t="n" s="2" r="D52">
         <v>41117.0</v>
       </c>
       <c t="n" r="E52">
@@ -2800,7 +2800,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="53">
+    <row r="53" spans="1:8">
       <c t="s" r="A53">
         <v>295</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c t="n" r="C53">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D53">
+      <c t="n" s="2" r="D53">
         <v>41101.0</v>
       </c>
       <c t="n" r="E53">
@@ -2823,7 +2823,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="54">
+    <row r="54" spans="1:8">
       <c t="s" r="A54">
         <v>295</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c t="n" r="C54">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D54">
+      <c t="n" s="2" r="D54">
         <v>41115.0</v>
       </c>
       <c t="n" r="E54">
@@ -2846,7 +2846,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="55">
+    <row r="55" spans="1:8">
       <c t="s" r="A55">
         <v>295</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c t="n" r="C55">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D55">
+      <c t="n" s="2" r="D55">
         <v>41105.0</v>
       </c>
       <c t="n" r="E55">
@@ -2869,7 +2869,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="56">
+    <row r="56" spans="1:8">
       <c t="s" r="A56">
         <v>295</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c t="n" r="C56">
         <v>101</v>
       </c>
-      <c s="1" t="n" r="D56">
+      <c t="n" s="2" r="D56">
         <v>41109.0</v>
       </c>
       <c t="n" r="E56">
@@ -2892,7 +2892,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="57">
+    <row r="57" spans="1:8">
       <c t="s" r="A57">
         <v>38</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="58">
+    <row r="58" spans="1:8">
       <c t="s" r="A58">
         <v>139</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="59">
+    <row r="59" spans="1:8">
       <c t="s" r="A59">
         <v>139</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="60">
+    <row r="60" spans="1:8">
       <c t="s" r="A60">
         <v>139</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="61">
+    <row r="61" spans="1:8">
       <c t="s" r="A61">
         <v>139</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="62">
+    <row r="62" spans="1:8">
       <c t="s" r="A62">
         <v>139</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="63">
+    <row r="63" spans="1:8">
       <c t="s" r="A63">
         <v>172</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="64">
+    <row r="64" spans="1:8">
       <c t="s" r="A64">
         <v>172</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="65">
+    <row r="65" spans="1:8">
       <c t="s" r="A65">
         <v>24</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="66">
+    <row r="66" spans="1:8">
       <c t="s" r="A66">
         <v>24</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="67">
+    <row r="67" spans="1:8">
       <c t="s" r="A67">
         <v>343</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="68">
+    <row r="68" spans="1:8">
       <c t="s" r="A68">
         <v>387</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="69">
+    <row r="69" spans="1:8">
       <c t="s" r="A69">
         <v>387</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="70">
+    <row r="70" spans="1:8">
       <c t="s" r="A70">
         <v>387</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="71">
+    <row r="71" spans="1:8">
       <c t="s" r="A71">
         <v>304</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="72">
+    <row r="72" spans="1:8">
       <c t="s" r="A72">
         <v>278</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="73">
+    <row r="73" spans="1:8">
       <c t="s" r="A73">
         <v>279</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="74">
+    <row r="74" spans="1:8">
       <c t="s" r="A74">
         <v>334</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="75">
+    <row r="75" spans="1:8">
       <c t="s" r="A75">
         <v>386</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="76">
+    <row r="76" spans="1:8">
       <c t="s" r="A76">
         <v>371</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="77">
+    <row r="77" spans="1:8">
       <c t="s" r="A77">
         <v>388</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="78">
+    <row r="78" spans="1:8">
       <c t="s" r="A78">
         <v>283</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="79">
+    <row r="79" spans="1:8">
       <c t="s" r="A79">
         <v>283</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="80">
+    <row r="80" spans="1:8">
       <c t="s" r="A80">
         <v>283</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="81">
+    <row r="81" spans="1:8">
       <c t="s" r="A81">
         <v>288</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="82">
+    <row r="82" spans="1:8">
       <c t="s" r="A82">
         <v>288</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="83">
+    <row r="83" spans="1:8">
       <c t="s" r="A83">
         <v>174</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="84">
+    <row r="84" spans="1:8">
       <c t="s" r="A84">
         <v>174</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="85">
+    <row r="85" spans="1:8">
       <c t="s" r="A85">
         <v>174</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="86">
+    <row r="86" spans="1:8">
       <c t="s" r="A86">
         <v>175</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="87">
+    <row r="87" spans="1:8">
       <c t="s" r="A87">
         <v>175</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="88">
+    <row r="88" spans="1:8">
       <c t="s" r="A88">
         <v>175</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="89">
+    <row r="89" spans="1:8">
       <c t="s" r="A89">
         <v>175</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="90">
+    <row r="90" spans="1:8">
       <c t="s" r="A90">
         <v>175</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="91">
+    <row r="91" spans="1:8">
       <c t="s" r="A91">
         <v>175</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="92">
+    <row r="92" spans="1:8">
       <c t="s" r="A92">
         <v>175</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="93">
+    <row r="93" spans="1:8">
       <c t="s" r="A93">
         <v>175</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="94">
+    <row r="94" spans="1:8">
       <c t="s" r="A94">
         <v>175</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="95">
+    <row r="95" spans="1:8">
       <c t="s" r="A95">
         <v>175</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="96">
+    <row r="96" spans="1:8">
       <c t="s" r="A96">
         <v>26</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="97">
+    <row r="97" spans="1:8">
       <c t="s" r="A97">
         <v>26</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="98">
+    <row r="98" spans="1:8">
       <c t="s" r="A98">
         <v>26</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="99">
+    <row r="99" spans="1:8">
       <c t="s" r="A99">
         <v>26</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="100">
+    <row r="100" spans="1:8">
       <c t="s" r="A100">
         <v>26</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="101">
+    <row r="101" spans="1:8">
       <c t="s" r="A101">
         <v>25</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="102">
+    <row r="102" spans="1:8">
       <c t="s" r="A102">
         <v>27</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="103">
+    <row r="103" spans="1:8">
       <c t="s" r="A103">
         <v>27</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="104">
+    <row r="104" spans="1:8">
       <c t="s" r="A104">
         <v>27</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="105">
+    <row r="105" spans="1:8">
       <c t="s" r="A105">
         <v>27</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="106">
+    <row r="106" spans="1:8">
       <c t="s" r="A106">
         <v>27</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="107">
+    <row r="107" spans="1:8">
       <c t="s" r="A107">
         <v>27</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="108">
+    <row r="108" spans="1:8">
       <c t="s" r="A108">
         <v>27</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="109">
+    <row r="109" spans="1:8">
       <c t="s" r="A109">
         <v>28</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="110">
+    <row r="110" spans="1:8">
       <c t="s" r="A110">
         <v>285</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="111">
+    <row r="111" spans="1:8">
       <c t="s" r="A111">
         <v>339</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="112">
+    <row r="112" spans="1:8">
       <c t="s" r="A112">
         <v>29</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="113">
+    <row r="113" spans="1:8">
       <c t="s" r="A113">
         <v>299</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="114">
+    <row r="114" spans="1:8">
       <c t="s" r="A114">
         <v>298</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="115">
+    <row r="115" spans="1:8">
       <c t="s" r="A115">
         <v>300</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="116">
+    <row r="116" spans="1:8">
       <c t="s" r="A116">
         <v>146</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="117">
+    <row r="117" spans="1:8">
       <c t="s" r="A117">
         <v>283</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="118">
+    <row r="118" spans="1:8">
       <c t="s" r="A118">
         <v>283</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="119">
+    <row r="119" spans="1:8">
       <c t="s" r="A119">
         <v>283</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="120">
+    <row r="120" spans="1:8">
       <c t="s" r="A120">
         <v>283</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="121">
+    <row r="121" spans="1:8">
       <c t="s" r="A121">
         <v>282</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="122">
+    <row r="122" spans="1:8">
       <c t="s" r="A122">
         <v>282</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="123">
+    <row r="123" spans="1:8">
       <c t="s" r="A123">
         <v>286</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="124">
+    <row r="124" spans="1:8">
       <c t="s" r="A124">
         <v>286</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="125">
+    <row r="125" spans="1:8">
       <c t="s" r="A125">
         <v>286</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="126">
+    <row r="126" spans="1:8">
       <c t="s" r="A126">
         <v>286</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="127">
+    <row r="127" spans="1:8">
       <c t="s" r="A127">
         <v>286</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="128">
+    <row r="128" spans="1:8">
       <c t="s" r="A128">
         <v>286</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="129">
+    <row r="129" spans="1:8">
       <c t="s" r="A129">
         <v>286</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="130">
+    <row r="130" spans="1:8">
       <c t="s" r="A130">
         <v>287</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="131">
+    <row r="131" spans="1:8">
       <c t="s" r="A131">
         <v>287</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="132">
+    <row r="132" spans="1:8">
       <c t="s" r="A132">
         <v>281</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="133">
+    <row r="133" spans="1:8">
       <c t="s" r="A133">
         <v>173</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="134">
+    <row r="134" spans="1:8">
       <c t="s" r="A134">
         <v>173</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="135">
+    <row r="135" spans="1:8">
       <c t="s" r="A135">
         <v>299</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="136">
+    <row r="136" spans="1:8">
       <c t="s" r="A136">
         <v>345</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="137">
+    <row r="137" spans="1:8">
       <c t="s" r="A137">
         <v>295</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="138">
+    <row r="138" spans="1:8">
       <c t="s" r="A138">
         <v>289</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="139">
+    <row r="139" spans="1:8">
       <c t="s" r="A139">
         <v>289</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="140">
+    <row r="140" spans="1:8">
       <c t="s" r="A140">
         <v>292</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="141">
+    <row r="141" spans="1:8">
       <c t="s" r="A141">
         <v>292</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="142">
+    <row r="142" spans="1:8">
       <c t="s" r="A142">
         <v>290</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="143">
+    <row r="143" spans="1:8">
       <c t="s" r="A143">
         <v>291</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="144">
+    <row r="144" spans="1:8">
       <c t="s" r="A144">
         <v>291</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="145">
+    <row r="145" spans="1:8">
       <c t="s" r="A145">
         <v>291</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="146">
+    <row r="146" spans="1:8">
       <c t="s" r="A146">
         <v>294</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="147">
+    <row r="147" spans="1:8">
       <c t="s" r="A147">
         <v>293</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="148">
+    <row r="148" spans="1:8">
       <c t="s" r="A148">
         <v>293</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="149">
+    <row r="149" spans="1:8">
       <c t="s" r="A149">
         <v>293</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="150">
+    <row r="150" spans="1:8">
       <c t="s" r="A150">
         <v>293</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="151">
+    <row r="151" spans="1:8">
       <c t="s" r="A151">
         <v>293</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="152">
+    <row r="152" spans="1:8">
       <c t="s" r="A152">
         <v>293</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="153">
+    <row r="153" spans="1:8">
       <c t="s" r="A153">
         <v>293</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="154">
+    <row r="154" spans="1:8">
       <c t="s" r="A154">
         <v>293</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="155">
+    <row r="155" spans="1:8">
       <c t="s" r="A155">
         <v>293</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="156">
+    <row r="156" spans="1:8">
       <c t="s" r="A156">
         <v>293</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="157">
+    <row r="157" spans="1:8">
       <c t="s" r="A157">
         <v>317</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="158">
+    <row r="158" spans="1:8">
       <c t="s" r="A158">
         <v>301</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="159">
+    <row r="159" spans="1:8">
       <c t="s" r="A159">
         <v>362</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="160">
+    <row r="160" spans="1:8">
       <c t="s" r="A160">
         <v>284</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="161">
+    <row r="161" spans="1:8">
       <c t="s" r="A161">
         <v>346</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="162">
+    <row r="162" spans="1:8">
       <c t="s" r="A162">
         <v>296</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="163">
+    <row r="163" spans="1:8">
       <c t="s" r="A163">
         <v>47</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="164">
+    <row r="164" spans="1:8">
       <c t="s" r="A164">
         <v>48</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="165">
+    <row r="165" spans="1:8">
       <c t="s" r="A165">
         <v>379</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="166">
+    <row r="166" spans="1:8">
       <c t="s" r="A166">
         <v>60</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="167">
+    <row r="167" spans="1:8">
       <c t="s" r="A167">
         <v>378</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="168">
+    <row r="168" spans="1:8">
       <c t="s" r="A168">
         <v>62</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="169">
+    <row r="169" spans="1:8">
       <c t="s" r="A169">
         <v>63</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="170">
+    <row r="170" spans="1:8">
       <c t="s" r="A170">
         <v>277</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="171">
+    <row r="171" spans="1:8">
       <c t="s" r="A171">
         <v>61</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="172">
+    <row r="172" spans="1:8">
       <c t="s" r="A172">
         <v>341</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="173">
+    <row r="173" spans="1:8">
       <c t="s" r="A173">
         <v>328</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c t="n" r="C173">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D173">
+      <c t="n" s="2" r="D173">
         <v>41468.0</v>
       </c>
       <c t="n" r="E173">
@@ -5583,7 +5583,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="174">
+    <row r="174" spans="1:8">
       <c t="s" r="A174">
         <v>328</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c t="n" r="C174">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D174">
+      <c t="n" s="2" r="D174">
         <v>41469.0</v>
       </c>
       <c t="n" r="E174">
@@ -5606,7 +5606,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="175">
+    <row r="175" spans="1:8">
       <c t="s" r="A175">
         <v>328</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c t="n" r="C175">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D175">
+      <c t="n" s="2" r="D175">
         <v>41467.0</v>
       </c>
       <c t="n" r="E175">
@@ -5629,7 +5629,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="176">
+    <row r="176" spans="1:8">
       <c t="s" r="A176">
         <v>328</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c t="n" r="C176">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D176">
+      <c t="n" s="2" r="D176">
         <v>41468.0</v>
       </c>
       <c t="n" r="E176">
@@ -5652,7 +5652,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="177">
+    <row r="177" spans="1:8">
       <c t="s" r="A177">
         <v>328</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c t="n" r="C177">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D177">
+      <c t="n" s="2" r="D177">
         <v>41467.0</v>
       </c>
       <c t="n" r="E177">
@@ -5675,7 +5675,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="178">
+    <row r="178" spans="1:8">
       <c t="s" r="A178">
         <v>328</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c t="n" r="C178">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D178">
+      <c t="n" s="2" r="D178">
         <v>41470.0</v>
       </c>
       <c t="n" r="E178">
@@ -5698,7 +5698,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="179">
+    <row r="179" spans="1:8">
       <c t="s" r="A179">
         <v>328</v>
       </c>
@@ -5708,7 +5708,7 @@
       <c t="n" r="C179">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D179">
+      <c t="n" s="2" r="D179">
         <v>41467.0</v>
       </c>
       <c t="n" r="E179">
@@ -5721,7 +5721,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="180">
+    <row r="180" spans="1:8">
       <c t="s" r="A180">
         <v>328</v>
       </c>
@@ -5731,7 +5731,7 @@
       <c t="n" r="C180">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D180">
+      <c t="n" s="2" r="D180">
         <v>41487.0</v>
       </c>
       <c t="n" r="E180">
@@ -5744,7 +5744,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="181">
+    <row r="181" spans="1:8">
       <c t="s" r="A181">
         <v>328</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="182">
+    <row r="182" spans="1:8">
       <c t="s" r="A182">
         <v>328</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="183">
+    <row r="183" spans="1:8">
       <c t="s" r="A183">
         <v>328</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="184">
+    <row r="184" spans="1:8">
       <c t="s" r="A184">
         <v>49</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="185">
+    <row r="185" spans="1:8">
       <c t="s" r="A185">
         <v>49</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="186">
+    <row r="186" spans="1:8">
       <c t="s" r="A186">
         <v>49</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="187">
+    <row r="187" spans="1:8">
       <c t="s" r="A187">
         <v>49</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="188">
+    <row r="188" spans="1:8">
       <c t="s" r="A188">
         <v>49</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="189">
+    <row r="189" spans="1:8">
       <c t="s" r="A189">
         <v>49</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="190">
+    <row r="190" spans="1:8">
       <c t="s" r="A190">
         <v>50</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="191">
+    <row r="191" spans="1:8">
       <c t="s" r="A191">
         <v>324</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="192">
+    <row r="192" spans="1:8">
       <c t="s" r="A192">
         <v>59</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="193">
+    <row r="193" spans="1:8">
       <c t="s" r="A193">
         <v>58</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="194">
+    <row r="194" spans="1:8">
       <c t="s" r="A194">
         <v>57</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="195">
+    <row r="195" spans="1:8">
       <c t="s" r="A195">
         <v>56</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="196">
+    <row r="196" spans="1:8">
       <c t="s" r="A196">
         <v>56</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="197">
+    <row r="197" spans="1:8">
       <c t="s" r="A197">
         <v>56</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="198">
+    <row r="198" spans="1:8">
       <c t="s" r="A198">
         <v>272</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="199">
+    <row r="199" spans="1:8">
       <c t="s" r="A199">
         <v>272</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="200">
+    <row r="200" spans="1:8">
       <c t="s" r="A200">
         <v>316</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="201">
+    <row r="201" spans="1:8">
       <c t="s" r="A201">
         <v>49</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="202">
+    <row r="202" spans="1:8">
       <c t="s" r="A202">
         <v>49</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="203">
+    <row r="203" spans="1:8">
       <c t="s" r="A203">
         <v>49</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="204">
+    <row r="204" spans="1:8">
       <c t="s" r="A204">
         <v>49</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="205">
+    <row r="205" spans="1:8">
       <c t="s" r="A205">
         <v>302</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="206">
+    <row r="206" spans="1:8">
       <c t="s" r="A206">
         <v>365</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="207">
+    <row r="207" spans="1:8">
       <c t="s" r="A207">
         <v>380</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="208">
+    <row r="208" spans="1:8">
       <c t="s" r="A208">
         <v>45</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="209">
+    <row r="209" spans="1:8">
       <c t="s" r="A209">
         <v>46</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="210">
+    <row r="210" spans="1:8">
       <c t="s" r="A210">
         <v>43</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="211">
+    <row r="211" spans="1:8">
       <c t="s" r="A211">
         <v>43</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="212">
+    <row r="212" spans="1:8">
       <c t="s" r="A212">
         <v>43</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="213">
+    <row r="213" spans="1:8">
       <c t="s" r="A213">
         <v>43</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="214">
+    <row r="214" spans="1:8">
       <c t="s" r="A214">
         <v>43</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="215">
+    <row r="215" spans="1:8">
       <c t="s" r="A215">
         <v>43</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="216">
+    <row r="216" spans="1:8">
       <c t="s" r="A216">
         <v>43</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="217">
+    <row r="217" spans="1:8">
       <c t="s" r="A217">
         <v>43</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="218">
+    <row r="218" spans="1:8">
       <c t="s" r="A218">
         <v>43</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="219">
+    <row r="219" spans="1:8">
       <c t="s" r="A219">
         <v>43</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="220">
+    <row r="220" spans="1:8">
       <c t="s" r="A220">
         <v>43</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="221">
+    <row r="221" spans="1:8">
       <c t="s" r="A221">
         <v>43</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="222">
+    <row r="222" spans="1:8">
       <c t="s" r="A222">
         <v>43</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="223">
+    <row r="223" spans="1:8">
       <c t="s" r="A223">
         <v>43</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="224">
+    <row r="224" spans="1:8">
       <c t="s" r="A224">
         <v>43</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="225">
+    <row r="225" spans="1:8">
       <c t="s" r="A225">
         <v>43</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="226">
+    <row r="226" spans="1:8">
       <c t="s" r="A226">
         <v>271</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="227">
+    <row r="227" spans="1:8">
       <c t="s" r="A227">
         <v>145</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="228">
+    <row r="228" spans="1:8">
       <c t="s" r="A228">
         <v>145</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="229">
+    <row r="229" spans="1:8">
       <c t="s" r="A229">
         <v>145</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="230">
+    <row r="230" spans="1:8">
       <c t="s" r="A230">
         <v>145</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="231">
+    <row r="231" spans="1:8">
       <c t="s" r="A231">
         <v>145</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="232">
+    <row r="232" spans="1:8">
       <c t="s" r="A232">
         <v>145</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="233">
+    <row r="233" spans="1:8">
       <c t="s" r="A233">
         <v>145</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="234">
+    <row r="234" spans="1:8">
       <c t="s" r="A234">
         <v>145</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="235">
+    <row r="235" spans="1:8">
       <c t="s" r="A235">
         <v>145</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="236">
+    <row r="236" spans="1:8">
       <c t="s" r="A236">
         <v>145</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="237">
+    <row r="237" spans="1:8">
       <c t="s" r="A237">
         <v>145</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="238">
+    <row r="238" spans="1:8">
       <c t="s" r="A238">
         <v>145</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="239">
+    <row r="239" spans="1:8">
       <c t="s" r="A239">
         <v>332</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="240">
+    <row r="240" spans="1:8">
       <c t="s" r="A240">
         <v>331</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c t="n" r="C240">
         <v>102</v>
       </c>
-      <c s="1" t="n" r="D240">
+      <c t="n" s="2" r="D240">
         <v>41544.0</v>
       </c>
       <c t="n" r="E240">
@@ -7121,7 +7121,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="241">
+    <row r="241" spans="1:8">
       <c t="s" r="A241">
         <v>269</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="242">
+    <row r="242" spans="1:8">
       <c t="s" r="A242">
         <v>55</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="243">
+    <row r="243" spans="1:8">
       <c t="s" r="A243">
         <v>306</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="244">
+    <row r="244" spans="1:8">
       <c t="s" r="A244">
         <v>306</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="245">
+    <row r="245" spans="1:8">
       <c t="s" r="A245">
         <v>306</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="246">
+    <row r="246" spans="1:8">
       <c t="s" r="A246">
         <v>306</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="247">
+    <row r="247" spans="1:8">
       <c t="s" r="A247">
         <v>306</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="248">
+    <row r="248" spans="1:8">
       <c t="s" r="A248">
         <v>306</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="249">
+    <row r="249" spans="1:8">
       <c t="s" r="A249">
         <v>306</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="250">
+    <row r="250" spans="1:8">
       <c t="s" r="A250">
         <v>306</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="251">
+    <row r="251" spans="1:8">
       <c t="s" r="A251">
         <v>306</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="252">
+    <row r="252" spans="1:8">
       <c t="s" r="A252">
         <v>306</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="253">
+    <row r="253" spans="1:8">
       <c t="s" r="A253">
         <v>306</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="254">
+    <row r="254" spans="1:8">
       <c t="s" r="A254">
         <v>306</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="255">
+    <row r="255" spans="1:8">
       <c t="s" r="A255">
         <v>303</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="256">
+    <row r="256" spans="1:8">
       <c t="s" r="A256">
         <v>303</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="257">
+    <row r="257" spans="1:8">
       <c t="s" r="A257">
         <v>303</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="258">
+    <row r="258" spans="1:8">
       <c t="s" r="A258">
         <v>303</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="259">
+    <row r="259" spans="1:8">
       <c t="s" r="A259">
         <v>303</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="260">
+    <row r="260" spans="1:8">
       <c t="s" r="A260">
         <v>303</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="261">
+    <row r="261" spans="1:8">
       <c t="s" r="A261">
         <v>303</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="262">
+    <row r="262" spans="1:8">
       <c t="s" r="A262">
         <v>303</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="263">
+    <row r="263" spans="1:8">
       <c t="s" r="A263">
         <v>303</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="264">
+    <row r="264" spans="1:8">
       <c t="s" r="A264">
         <v>350</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="265">
+    <row r="265" spans="1:8">
       <c t="s" r="A265">
         <v>348</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="266">
+    <row r="266" spans="1:8">
       <c t="s" r="A266">
         <v>347</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="267">
+    <row r="267" spans="1:8">
       <c t="s" r="A267">
         <v>349</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="268">
+    <row r="268" spans="1:8">
       <c t="s" r="A268">
         <v>42</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="269">
+    <row r="269" spans="1:8">
       <c t="s" r="A269">
         <v>305</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="270">
+    <row r="270" spans="1:8">
       <c t="s" r="A270">
         <v>305</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="271">
+    <row r="271" spans="1:8">
       <c t="s" r="A271">
         <v>305</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="272">
+    <row r="272" spans="1:8">
       <c t="s" r="A272">
         <v>305</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="273">
+    <row r="273" spans="1:8">
       <c t="s" r="A273">
         <v>305</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="274">
+    <row r="274" spans="1:8">
       <c t="s" r="A274">
         <v>330</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="275">
+    <row r="275" spans="1:8">
       <c t="s" r="A275">
         <v>329</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="276">
+    <row r="276" spans="1:8">
       <c t="s" r="A276">
         <v>359</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="277">
+    <row r="277" spans="1:8">
       <c t="s" r="A277">
         <v>382</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="278">
+    <row r="278" spans="1:8">
       <c t="s" r="A278">
         <v>375</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="279">
+    <row r="279" spans="1:8">
       <c t="s" r="A279">
         <v>375</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="280">
+    <row r="280" spans="1:8">
       <c t="s" r="A280">
         <v>375</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="281">
+    <row r="281" spans="1:8">
       <c t="s" r="A281">
         <v>351</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="282">
+    <row r="282" spans="1:8">
       <c t="s" r="A282">
         <v>351</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="283">
+    <row r="283" spans="1:8">
       <c t="s" r="A283">
         <v>351</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="284">
+    <row r="284" spans="1:8">
       <c t="s" r="A284">
         <v>351</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="285">
+    <row r="285" spans="1:8">
       <c t="s" r="A285">
         <v>351</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="286">
+    <row r="286" spans="1:8">
       <c t="s" r="A286">
         <v>351</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="287">
+    <row r="287" spans="1:8">
       <c t="s" r="A287">
         <v>351</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="288">
+    <row r="288" spans="1:8">
       <c t="s" r="A288">
         <v>351</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="289">
+    <row r="289" spans="1:8">
       <c t="s" r="A289">
         <v>351</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="290">
+    <row r="290" spans="1:8">
       <c t="s" r="A290">
         <v>351</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="291">
+    <row r="291" spans="1:8">
       <c t="s" r="A291">
         <v>351</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="292">
+    <row r="292" spans="1:8">
       <c t="s" r="A292">
         <v>351</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="293">
+    <row r="293" spans="1:8">
       <c t="s" r="A293">
         <v>351</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="294">
+    <row r="294" spans="1:8">
       <c t="s" r="A294">
         <v>351</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="295">
+    <row r="295" spans="1:8">
       <c t="s" r="A295">
         <v>351</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="296">
+    <row r="296" spans="1:8">
       <c t="s" r="A296">
         <v>351</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="297">
+    <row r="297" spans="1:8">
       <c t="s" r="A297">
         <v>351</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="298">
+    <row r="298" spans="1:8">
       <c t="s" r="A298">
         <v>351</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="299">
+    <row r="299" spans="1:8">
       <c t="s" r="A299">
         <v>351</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="300">
+    <row r="300" spans="1:8">
       <c t="s" r="A300">
         <v>54</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="301">
+    <row r="301" spans="1:8">
       <c t="s" r="A301">
         <v>53</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="302">
+    <row r="302" spans="1:8">
       <c t="s" r="A302">
         <v>52</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="303">
+    <row r="303" spans="1:8">
       <c t="s" r="A303">
         <v>366</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="304">
+    <row r="304" spans="1:8">
       <c t="s" r="A304">
         <v>340</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="305">
+    <row r="305" spans="1:8">
       <c t="s" r="A305">
         <v>340</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="306">
+    <row r="306" spans="1:8">
       <c t="s" r="A306">
         <v>340</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="307">
+    <row r="307" spans="1:8">
       <c t="s" r="A307">
         <v>340</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="308">
+    <row r="308" spans="1:8">
       <c t="s" r="A308">
         <v>340</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="309">
+    <row r="309" spans="1:8">
       <c t="s" r="A309">
         <v>340</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="310">
+    <row r="310" spans="1:8">
       <c t="s" r="A310">
         <v>340</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="311">
+    <row r="311" spans="1:8">
       <c t="s" r="A311">
         <v>340</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="312">
+    <row r="312" spans="1:8">
       <c t="s" r="A312">
         <v>327</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="313">
+    <row r="313" spans="1:8">
       <c t="s" r="A313">
         <v>327</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="314">
+    <row r="314" spans="1:8">
       <c t="s" r="A314">
         <v>327</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="315">
+    <row r="315" spans="1:8">
       <c t="s" r="A315">
         <v>327</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="316">
+    <row r="316" spans="1:8">
       <c t="s" r="A316">
         <v>327</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="317">
+    <row r="317" spans="1:8">
       <c t="s" r="A317">
         <v>327</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="318">
+    <row r="318" spans="1:8">
       <c t="s" r="A318">
         <v>327</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="319">
+    <row r="319" spans="1:8">
       <c t="s" r="A319">
         <v>327</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="320">
+    <row r="320" spans="1:8">
       <c t="s" r="A320">
         <v>361</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="321">
+    <row r="321" spans="1:8">
       <c t="s" r="A321">
         <v>370</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="322">
+    <row r="322" spans="1:8">
       <c t="s" r="A322">
         <v>370</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="323">
+    <row r="323" spans="1:8">
       <c t="s" r="A323">
         <v>370</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="324">
+    <row r="324" spans="1:8">
       <c t="s" r="A324">
         <v>370</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="325">
+    <row r="325" spans="1:8">
       <c t="s" r="A325">
         <v>370</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="326">
+    <row r="326" spans="1:8">
       <c t="s" r="A326">
         <v>274</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="327">
+    <row r="327" spans="1:8">
       <c t="s" r="A327">
         <v>274</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="328">
+    <row r="328" spans="1:8">
       <c t="s" r="A328">
         <v>274</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="329">
+    <row r="329" spans="1:8">
       <c t="s" r="A329">
         <v>274</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="330">
+    <row r="330" spans="1:8">
       <c t="s" r="A330">
         <v>274</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="331">
+    <row r="331" spans="1:8">
       <c t="s" r="A331">
         <v>274</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="332">
+    <row r="332" spans="1:8">
       <c t="s" r="A332">
         <v>274</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="333">
+    <row r="333" spans="1:8">
       <c t="s" r="A333">
         <v>274</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="334">
+    <row r="334" spans="1:8">
       <c t="s" r="A334">
         <v>274</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="335">
+    <row r="335" spans="1:8">
       <c t="s" r="A335">
         <v>354</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="336">
+    <row r="336" spans="1:8">
       <c t="s" r="A336">
         <v>354</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="337">
+    <row r="337" spans="1:8">
       <c t="s" r="A337">
         <v>354</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="338">
+    <row r="338" spans="1:8">
       <c t="s" r="A338">
         <v>354</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="339">
+    <row r="339" spans="1:8">
       <c t="s" r="A339">
         <v>354</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="340">
+    <row r="340" spans="1:8">
       <c t="s" r="A340">
         <v>354</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="341">
+    <row r="341" spans="1:8">
       <c t="s" r="A341">
         <v>354</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="342">
+    <row r="342" spans="1:8">
       <c t="s" r="A342">
         <v>354</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="343">
+    <row r="343" spans="1:8">
       <c t="s" r="A343">
         <v>354</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="344">
+    <row r="344" spans="1:8">
       <c t="s" r="A344">
         <v>354</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>333</v>
       </c>
     </row>
-    <row spans="1:8" r="345">
+    <row r="345" spans="1:8">
       <c t="s" r="A345">
         <v>354</v>
       </c>
